--- a/gpa_tracker.xlsx
+++ b/gpa_tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/792b544d67660648/Documents/CLASS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EAEC30B-E5AD-4E67-92C6-0502A711F8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{0EAEC30B-E5AD-4E67-92C6-0502A711F8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAF23B80-7897-4D15-960F-B8A835B2DC2C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8701DF3E-5B72-4523-9D8C-4DBA38B880DF}"/>
   </bookViews>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <f>B2+1</f>
+        <f t="shared" ref="B6:B37" si="0">B2+1</f>
         <v>2009</v>
       </c>
       <c r="C6" s="1">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <f>B3+1</f>
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
       <c r="C7" s="1">
@@ -595,7 +595,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <f>B4+1</f>
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
       <c r="C8" s="1">
@@ -616,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1">
-        <f>B5+1</f>
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
       <c r="C9" s="1">
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1">
-        <f>B6+1</f>
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
       <c r="C10" s="1">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <f>B7+1</f>
+        <f t="shared" si="0"/>
         <v>2011</v>
       </c>
       <c r="D11" s="1">
@@ -670,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="1">
-        <f>B8+1</f>
+        <f t="shared" si="0"/>
         <v>2011</v>
       </c>
       <c r="C12" s="1">
@@ -691,7 +691,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="1">
-        <f>B9+1</f>
+        <f t="shared" si="0"/>
         <v>2011</v>
       </c>
       <c r="C13" s="1">
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="1">
-        <f>B10+1</f>
+        <f t="shared" si="0"/>
         <v>2011</v>
       </c>
       <c r="C14" s="1">
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1">
-        <f>B11+1</f>
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
       <c r="C15" s="1">
@@ -749,7 +749,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1">
-        <f>B12+1</f>
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
       <c r="C16" s="1">
@@ -770,7 +770,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <f>B13+1</f>
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
       <c r="C17" s="1">
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="1">
-        <f>B14+1</f>
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
       <c r="C18" s="1">
@@ -813,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="1">
-        <f>B15+1</f>
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
       <c r="C19" s="1">
@@ -835,7 +835,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="1">
-        <f>B16+1</f>
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
       <c r="C20" s="1">
@@ -857,14 +857,14 @@
         <v>3</v>
       </c>
       <c r="B21" s="1">
-        <f>B17+1</f>
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" ref="D21:D59" si="0">D20+C21</f>
+        <f t="shared" ref="D21:D59" si="1">D20+C21</f>
         <v>129</v>
       </c>
       <c r="E21" s="1">
@@ -879,14 +879,14 @@
         <v>0</v>
       </c>
       <c r="B22" s="1">
-        <f>B18+1</f>
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="E22" s="1">
@@ -901,14 +901,14 @@
         <v>1</v>
       </c>
       <c r="B23" s="1">
-        <f>B19+1</f>
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="E23" s="1">
@@ -923,14 +923,14 @@
         <v>2</v>
       </c>
       <c r="B24" s="1">
-        <f>B20+1</f>
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="E24" s="1">
@@ -957,14 +957,14 @@
         <v>3</v>
       </c>
       <c r="B25" s="1">
-        <f>B21+1</f>
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="E25" s="1">
@@ -979,14 +979,14 @@
         <v>0</v>
       </c>
       <c r="B26" s="1">
-        <f>B22+1</f>
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="E26" s="1">
@@ -1013,14 +1013,14 @@
         <v>1</v>
       </c>
       <c r="B27" s="1">
-        <f>B23+1</f>
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="E27" s="1">
@@ -1047,14 +1047,14 @@
         <v>2</v>
       </c>
       <c r="B28" s="1">
-        <f>B24+1</f>
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" ref="D28:D57" si="1">D27+C28</f>
+        <f t="shared" ref="D28:D57" si="2">D27+C28</f>
         <v>129</v>
       </c>
       <c r="E28" s="1">
@@ -1069,14 +1069,14 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <f>B25+1</f>
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E29" s="1">
@@ -1091,14 +1091,14 @@
         <v>0</v>
       </c>
       <c r="B30" s="1">
-        <f>B26+1</f>
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E30" s="1">
@@ -1113,14 +1113,14 @@
         <v>1</v>
       </c>
       <c r="B31" s="1">
-        <f>B27+1</f>
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E31" s="1">
@@ -1135,14 +1135,14 @@
         <v>2</v>
       </c>
       <c r="B32" s="1">
-        <f>B28+1</f>
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E32" s="1">
@@ -1157,14 +1157,14 @@
         <v>3</v>
       </c>
       <c r="B33" s="1">
-        <f>B29+1</f>
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E33" s="1">
@@ -1179,14 +1179,14 @@
         <v>0</v>
       </c>
       <c r="B34" s="1">
-        <f>B30+1</f>
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E34" s="1">
@@ -1201,14 +1201,14 @@
         <v>1</v>
       </c>
       <c r="B35" s="1">
-        <f>B31+1</f>
+        <f t="shared" si="0"/>
         <v>2017</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E35" s="1">
@@ -1223,14 +1223,14 @@
         <v>2</v>
       </c>
       <c r="B36" s="1">
-        <f>B32+1</f>
+        <f t="shared" si="0"/>
         <v>2017</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E36" s="1">
@@ -1245,14 +1245,14 @@
         <v>3</v>
       </c>
       <c r="B37" s="1">
-        <f>B33+1</f>
+        <f t="shared" si="0"/>
         <v>2017</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E37" s="1">
@@ -1267,14 +1267,14 @@
         <v>0</v>
       </c>
       <c r="B38" s="1">
-        <f>B34+1</f>
+        <f t="shared" ref="B38:B69" si="3">B34+1</f>
         <v>2017</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E38" s="1">
@@ -1289,14 +1289,14 @@
         <v>1</v>
       </c>
       <c r="B39" s="1">
-        <f>B35+1</f>
+        <f t="shared" si="3"/>
         <v>2018</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E39" s="1">
@@ -1311,14 +1311,14 @@
         <v>2</v>
       </c>
       <c r="B40" s="1">
-        <f>B36+1</f>
+        <f t="shared" si="3"/>
         <v>2018</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E40" s="1">
@@ -1333,14 +1333,14 @@
         <v>3</v>
       </c>
       <c r="B41" s="1">
-        <f>B37+1</f>
+        <f t="shared" si="3"/>
         <v>2018</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E41" s="1">
@@ -1355,14 +1355,14 @@
         <v>0</v>
       </c>
       <c r="B42" s="1">
-        <f>B38+1</f>
+        <f t="shared" si="3"/>
         <v>2018</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E42" s="1">
@@ -1377,14 +1377,14 @@
         <v>1</v>
       </c>
       <c r="B43" s="1">
-        <f>B39+1</f>
+        <f t="shared" si="3"/>
         <v>2019</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E43" s="1">
@@ -1399,14 +1399,14 @@
         <v>2</v>
       </c>
       <c r="B44" s="1">
-        <f>B40+1</f>
+        <f t="shared" si="3"/>
         <v>2019</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E44" s="1">
@@ -1421,14 +1421,14 @@
         <v>3</v>
       </c>
       <c r="B45" s="1">
-        <f>B41+1</f>
+        <f t="shared" si="3"/>
         <v>2019</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E45" s="1">
@@ -1443,14 +1443,14 @@
         <v>0</v>
       </c>
       <c r="B46" s="1">
-        <f>B42+1</f>
+        <f t="shared" si="3"/>
         <v>2019</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E46" s="1">
@@ -1465,14 +1465,14 @@
         <v>1</v>
       </c>
       <c r="B47" s="1">
-        <f>B43+1</f>
+        <f t="shared" si="3"/>
         <v>2020</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E47" s="1">
@@ -1487,14 +1487,14 @@
         <v>2</v>
       </c>
       <c r="B48" s="1">
-        <f>B44+1</f>
+        <f t="shared" si="3"/>
         <v>2020</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E48" s="1">
@@ -1509,14 +1509,14 @@
         <v>3</v>
       </c>
       <c r="B49" s="1">
-        <f>B45+1</f>
+        <f t="shared" si="3"/>
         <v>2020</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E49" s="1">
@@ -1531,14 +1531,14 @@
         <v>0</v>
       </c>
       <c r="B50" s="1">
-        <f>B46+1</f>
+        <f t="shared" si="3"/>
         <v>2020</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E50" s="1">
@@ -1553,14 +1553,14 @@
         <v>1</v>
       </c>
       <c r="B51" s="1">
-        <f>B47+1</f>
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E51" s="1">
@@ -1575,14 +1575,14 @@
         <v>2</v>
       </c>
       <c r="B52" s="1">
-        <f>B48+1</f>
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E52" s="1">
@@ -1597,14 +1597,14 @@
         <v>3</v>
       </c>
       <c r="B53" s="1">
-        <f>B49+1</f>
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E53" s="1">
@@ -1619,14 +1619,14 @@
         <v>0</v>
       </c>
       <c r="B54" s="1">
-        <f>B50+1</f>
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E54" s="1">
@@ -1641,14 +1641,14 @@
         <v>1</v>
       </c>
       <c r="B55" s="1">
-        <f>B51+1</f>
+        <f t="shared" si="3"/>
         <v>2022</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E55" s="1">
@@ -1663,14 +1663,14 @@
         <v>2</v>
       </c>
       <c r="B56" s="1">
-        <f>B52+1</f>
+        <f t="shared" si="3"/>
         <v>2022</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E56" s="1">
@@ -1685,14 +1685,14 @@
         <v>3</v>
       </c>
       <c r="B57" s="1">
-        <f>B53+1</f>
+        <f t="shared" si="3"/>
         <v>2022</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E57" s="1">
@@ -1707,21 +1707,21 @@
         <v>0</v>
       </c>
       <c r="B58" s="2">
-        <f>B54+1</f>
+        <f t="shared" si="3"/>
         <v>2022</v>
       </c>
       <c r="C58" s="2">
         <v>4</v>
       </c>
       <c r="D58" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>133</v>
       </c>
       <c r="E58" s="2">
         <v>4</v>
       </c>
       <c r="F58" s="4">
-        <f>((D57*F57)+(E58*C58))/D58</f>
+        <f t="shared" ref="F58:F77" si="4">((D57*F57)+(E58*C58))/D58</f>
         <v>3.1416165413533839</v>
       </c>
     </row>
@@ -1730,21 +1730,21 @@
         <v>1</v>
       </c>
       <c r="B59" s="1">
-        <f>B55+1</f>
+        <f t="shared" si="3"/>
         <v>2023</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>133</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
       </c>
       <c r="F59" s="3">
-        <f>((D58*F58)+(E59*C59))/D59</f>
+        <f t="shared" si="4"/>
         <v>3.1416165413533839</v>
       </c>
     </row>
@@ -1753,21 +1753,21 @@
         <v>2</v>
       </c>
       <c r="B60" s="1">
-        <f>B56+1</f>
+        <f t="shared" si="3"/>
         <v>2023</v>
       </c>
       <c r="C60" s="1">
         <v>12</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" ref="D60:D67" si="2">D59+C60</f>
+        <f t="shared" ref="D60:D63" si="5">D59+C60</f>
         <v>145</v>
       </c>
       <c r="E60" s="1">
         <v>4</v>
       </c>
       <c r="F60" s="3">
-        <f>((D59*F59)+(E60*C60))/D60</f>
+        <f t="shared" si="4"/>
         <v>3.2126551724137933</v>
       </c>
     </row>
@@ -1776,21 +1776,21 @@
         <v>3</v>
       </c>
       <c r="B61" s="1">
-        <f>B57+1</f>
+        <f t="shared" si="3"/>
         <v>2023</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>145</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <f>((D60*F60)+(E61*C61))/D61</f>
+        <f t="shared" si="4"/>
         <v>3.2126551724137933</v>
       </c>
     </row>
@@ -1799,21 +1799,21 @@
         <v>0</v>
       </c>
       <c r="B62" s="2">
-        <f>B58+1</f>
+        <f t="shared" si="3"/>
         <v>2023</v>
       </c>
       <c r="C62" s="2">
         <v>15</v>
       </c>
       <c r="D62" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="E62" s="2">
         <v>4</v>
       </c>
       <c r="F62" s="4">
-        <f>((D61*F61)+(E62*C62))/D62</f>
+        <f t="shared" si="4"/>
         <v>3.28646875</v>
       </c>
     </row>
@@ -1822,21 +1822,21 @@
         <v>1</v>
       </c>
       <c r="B63" s="1">
-        <f>B59+1</f>
+        <f t="shared" si="3"/>
         <v>2024</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="E63" s="1">
         <v>0</v>
       </c>
       <c r="F63" s="3">
-        <f>((D62*F62)+(E63*C63))/D63</f>
+        <f t="shared" si="4"/>
         <v>3.28646875</v>
       </c>
     </row>
@@ -1845,21 +1845,21 @@
         <v>2</v>
       </c>
       <c r="B64" s="1">
-        <f>B60+1</f>
+        <f t="shared" si="3"/>
         <v>2024</v>
       </c>
       <c r="C64" s="1">
         <v>15</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" ref="D64:D85" si="3">D63+C64</f>
+        <f t="shared" ref="D64:D67" si="6">D63+C64</f>
         <v>175</v>
       </c>
       <c r="E64" s="1">
         <v>4</v>
       </c>
       <c r="F64" s="3">
-        <f>((D63*F63)+(E64*C64))/D64</f>
+        <f t="shared" si="4"/>
         <v>3.3476285714285718</v>
       </c>
     </row>
@@ -1868,21 +1868,21 @@
         <v>3</v>
       </c>
       <c r="B65" s="1">
-        <f>B61+1</f>
+        <f t="shared" si="3"/>
         <v>2024</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>175</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
       </c>
       <c r="F65" s="3">
-        <f>((D64*F64)+(E65*C65))/D65</f>
+        <f t="shared" si="4"/>
         <v>3.3476285714285718</v>
       </c>
     </row>
@@ -1891,21 +1891,21 @@
         <v>0</v>
       </c>
       <c r="B66" s="2">
-        <f>B62+1</f>
+        <f t="shared" si="3"/>
         <v>2024</v>
       </c>
       <c r="C66" s="2">
         <v>15</v>
       </c>
       <c r="D66" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
       <c r="E66" s="2">
         <v>4</v>
       </c>
       <c r="F66" s="4">
-        <f>((D65*F65)+(E66*C66))/D66</f>
+        <f t="shared" si="4"/>
         <v>3.3991315789473684</v>
       </c>
     </row>
@@ -1914,21 +1914,21 @@
         <v>1</v>
       </c>
       <c r="B67" s="1">
-        <f>B63+1</f>
+        <f t="shared" si="3"/>
         <v>2025</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
       <c r="E67" s="1">
         <v>0</v>
       </c>
       <c r="F67" s="3">
-        <f>((D66*F66)+(E67*C67))/D67</f>
+        <f t="shared" si="4"/>
         <v>3.3991315789473684</v>
       </c>
     </row>
@@ -1937,21 +1937,21 @@
         <v>2</v>
       </c>
       <c r="B68" s="1">
-        <f>B64+1</f>
+        <f t="shared" si="3"/>
         <v>2025</v>
       </c>
       <c r="C68" s="1">
         <v>15</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" ref="D68:D77" si="4">D67+C68</f>
+        <f t="shared" ref="D68:D77" si="7">D67+C68</f>
         <v>205</v>
       </c>
       <c r="E68" s="1">
         <v>4</v>
       </c>
       <c r="F68" s="3">
-        <f>((D67*F67)+(E68*C68))/D68</f>
+        <f t="shared" si="4"/>
         <v>3.4430975609756098</v>
       </c>
     </row>
@@ -1960,21 +1960,21 @@
         <v>3</v>
       </c>
       <c r="B69" s="1">
-        <f>B65+1</f>
+        <f t="shared" si="3"/>
         <v>2025</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
       </c>
       <c r="D69" s="1">
+        <f t="shared" si="7"/>
+        <v>205</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
         <f t="shared" si="4"/>
-        <v>205</v>
-      </c>
-      <c r="E69" s="1">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3">
-        <f>((D68*F68)+(E69*C69))/D69</f>
         <v>3.4430975609756098</v>
       </c>
     </row>
@@ -1983,21 +1983,21 @@
         <v>0</v>
       </c>
       <c r="B70" s="2">
-        <f>B66+1</f>
+        <f t="shared" ref="B70:B101" si="8">B66+1</f>
         <v>2025</v>
       </c>
       <c r="C70" s="2">
         <v>15</v>
       </c>
       <c r="D70" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>220</v>
       </c>
       <c r="E70" s="2">
         <v>4</v>
       </c>
       <c r="F70" s="4">
-        <f>((D69*F69)+(E70*C70))/D70</f>
+        <f t="shared" si="4"/>
         <v>3.4810681818181819</v>
       </c>
     </row>
@@ -2006,21 +2006,21 @@
         <v>1</v>
       </c>
       <c r="B71" s="1">
-        <f>B67+1</f>
+        <f t="shared" si="8"/>
         <v>2026</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
       </c>
       <c r="D71" s="1">
+        <f t="shared" si="7"/>
+        <v>220</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
         <f t="shared" si="4"/>
-        <v>220</v>
-      </c>
-      <c r="E71" s="1">
-        <v>0</v>
-      </c>
-      <c r="F71" s="3">
-        <f>((D70*F70)+(E71*C71))/D71</f>
         <v>3.4810681818181819</v>
       </c>
     </row>
@@ -2029,21 +2029,21 @@
         <v>2</v>
       </c>
       <c r="B72" s="1">
-        <f>B68+1</f>
+        <f t="shared" si="8"/>
         <v>2026</v>
       </c>
       <c r="C72" s="1">
         <v>15</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>235</v>
       </c>
       <c r="E72" s="1">
         <v>4</v>
       </c>
       <c r="F72" s="3">
-        <f>((D71*F71)+(E72*C72))/D72</f>
+        <f t="shared" si="4"/>
         <v>3.5141914893617021</v>
       </c>
     </row>
@@ -2052,21 +2052,21 @@
         <v>3</v>
       </c>
       <c r="B73" s="1">
-        <f>B69+1</f>
+        <f t="shared" si="8"/>
         <v>2026</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
       </c>
       <c r="D73" s="1">
+        <f t="shared" si="7"/>
+        <v>235</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3">
         <f t="shared" si="4"/>
-        <v>235</v>
-      </c>
-      <c r="E73" s="1">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3">
-        <f>((D72*F72)+(E73*C73))/D73</f>
         <v>3.5141914893617021</v>
       </c>
     </row>
@@ -2075,21 +2075,21 @@
         <v>0</v>
       </c>
       <c r="B74" s="2">
-        <f>B70+1</f>
+        <f t="shared" si="8"/>
         <v>2026</v>
       </c>
       <c r="C74" s="2">
         <v>15</v>
       </c>
       <c r="D74" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>250</v>
       </c>
       <c r="E74" s="2">
         <v>4</v>
       </c>
       <c r="F74" s="4">
-        <f>((D73*F73)+(E74*C74))/D74</f>
+        <f t="shared" si="4"/>
         <v>3.5433400000000002</v>
       </c>
     </row>
@@ -2098,21 +2098,21 @@
         <v>1</v>
       </c>
       <c r="B75" s="1">
-        <f>B71+1</f>
+        <f t="shared" si="8"/>
         <v>2027</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
       </c>
       <c r="D75" s="1">
+        <f t="shared" si="7"/>
+        <v>250</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
         <f t="shared" si="4"/>
-        <v>250</v>
-      </c>
-      <c r="E75" s="1">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3">
-        <f>((D74*F74)+(E75*C75))/D75</f>
         <v>3.5433400000000002</v>
       </c>
     </row>
@@ -2121,21 +2121,21 @@
         <v>2</v>
       </c>
       <c r="B76" s="1">
-        <f>B72+1</f>
+        <f t="shared" si="8"/>
         <v>2027</v>
       </c>
       <c r="C76" s="1">
         <v>15</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>265</v>
       </c>
       <c r="E76" s="1">
         <v>4</v>
       </c>
       <c r="F76" s="3">
-        <f>((D75*F75)+(E76*C76))/D76</f>
+        <f t="shared" si="4"/>
         <v>3.5691886792452832</v>
       </c>
     </row>
@@ -2144,21 +2144,21 @@
         <v>3</v>
       </c>
       <c r="B77" s="1">
-        <f>B73+1</f>
+        <f t="shared" si="8"/>
         <v>2027</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
       </c>
       <c r="D77" s="1">
+        <f t="shared" si="7"/>
+        <v>265</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
         <f t="shared" si="4"/>
-        <v>265</v>
-      </c>
-      <c r="E77" s="1">
-        <v>0</v>
-      </c>
-      <c r="F77" s="3">
-        <f>((D76*F76)+(E77*C77))/D77</f>
         <v>3.5691886792452832</v>
       </c>
     </row>
